--- a/data/trans_orig/P15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>56332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43414</v>
+        <v>42180</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71722</v>
+        <v>72505</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0545997873730381</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04207896258136936</v>
+        <v>0.04088332641495428</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06951627169592016</v>
+        <v>0.07027555873071574</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>77</v>
@@ -765,19 +765,19 @@
         <v>79549</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>63490</v>
+        <v>62025</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98012</v>
+        <v>95451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06048857650828287</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04827688897751183</v>
+        <v>0.04716320065346275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07452744905212817</v>
+        <v>0.07257992570910472</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -786,19 +786,19 @@
         <v>135881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116981</v>
+        <v>113792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>159653</v>
+        <v>159486</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05789972938921262</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0498463368783682</v>
+        <v>0.04848750582440117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06802923495458946</v>
+        <v>0.06795804706935187</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>975391</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>960001</v>
+        <v>959218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>988309</v>
+        <v>989543</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9454002126269619</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9304837283040798</v>
+        <v>0.9297244412692842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9579210374186307</v>
+        <v>0.9591166735850457</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1214</v>
@@ -836,19 +836,19 @@
         <v>1235564</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1217101</v>
+        <v>1219662</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1251623</v>
+        <v>1253088</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9395114234917171</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9254725509478718</v>
+        <v>0.9274200742908955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9517231110224883</v>
+        <v>0.9528367993465373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2194</v>
@@ -857,19 +857,19 @@
         <v>2210954</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2187182</v>
+        <v>2187349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2229854</v>
+        <v>2233043</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9421002706107874</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9319707650454104</v>
+        <v>0.9320419529306482</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9501536631216317</v>
+        <v>0.951512494175599</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>145631</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>124216</v>
+        <v>123843</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>170273</v>
+        <v>170937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08599875443241016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.07335241550201645</v>
+        <v>0.07313241090137254</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1005502528301514</v>
+        <v>0.1009425463120168</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>70</v>
@@ -982,19 +982,19 @@
         <v>72473</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56970</v>
+        <v>56557</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91320</v>
+        <v>88308</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04564725300734856</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03588247283783481</v>
+        <v>0.03562246042958247</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05751836497699282</v>
+        <v>0.05562088694435448</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>211</v>
@@ -1003,19 +1003,19 @@
         <v>218104</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>189820</v>
+        <v>191423</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246714</v>
+        <v>250785</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06647320738557717</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05785265054275391</v>
+        <v>0.058341368297713</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0751927123379683</v>
+        <v>0.0764335633297912</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1547782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1523140</v>
+        <v>1522476</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1569197</v>
+        <v>1569570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9140012455675899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.899449747169849</v>
+        <v>0.8990574536879832</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9266475844979836</v>
+        <v>0.9268675890986274</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1484</v>
@@ -1053,19 +1053,19 @@
         <v>1515200</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1496353</v>
+        <v>1499365</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1530703</v>
+        <v>1531116</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9543527469926515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9424816350230072</v>
+        <v>0.9443791130556456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9641175271621653</v>
+        <v>0.9643775395704176</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2992</v>
@@ -1074,19 +1074,19 @@
         <v>3062982</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3034372</v>
+        <v>3030301</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3091266</v>
+        <v>3089663</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9335267926144228</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9248072876620318</v>
+        <v>0.923566436670209</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9421473494572461</v>
+        <v>0.941658631702287</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>41093</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30411</v>
+        <v>29572</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55409</v>
+        <v>55284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07452414074964576</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05515149506917377</v>
+        <v>0.05362984777504622</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1004858444471534</v>
+        <v>0.1002592895560287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>23368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14759</v>
+        <v>15259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>35100</v>
+        <v>34774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0490509593298778</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03097901698102285</v>
+        <v>0.03202920106546343</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0736751263125535</v>
+        <v>0.07299226797172058</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -1220,19 +1220,19 @@
         <v>64462</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49839</v>
+        <v>49025</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81501</v>
+        <v>81936</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06271689327361096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04849014477528718</v>
+        <v>0.04769849007116715</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07929495015529084</v>
+        <v>0.07971792193586251</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>510315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>495999</v>
+        <v>496124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>520997</v>
+        <v>521836</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9254758592503542</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8995141555528466</v>
+        <v>0.8997407104439713</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9448485049308262</v>
+        <v>0.9463701522249538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>430</v>
@@ -1270,19 +1270,19 @@
         <v>453044</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441312</v>
+        <v>441638</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>461653</v>
+        <v>461153</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9509490406701222</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9263248736874464</v>
+        <v>0.9270077320282794</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9690209830189771</v>
+        <v>0.9679707989345365</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>919</v>
@@ -1291,19 +1291,19 @@
         <v>963358</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>946319</v>
+        <v>945884</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>977981</v>
+        <v>978795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.937283106726389</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9207050498447091</v>
+        <v>0.9202820780641378</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9515098552247128</v>
+        <v>0.9523015099288329</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>243056</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>214716</v>
+        <v>215255</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274575</v>
+        <v>273284</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07418074369571771</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0655313656296177</v>
+        <v>0.06569570807364032</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08380017648223406</v>
+        <v>0.08340620574547908</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>169</v>
@@ -1416,19 +1416,19 @@
         <v>175391</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>150456</v>
+        <v>151351</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>202505</v>
+        <v>203945</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05190305141419276</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04452412536923828</v>
+        <v>0.04478898497681795</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05992705410673227</v>
+        <v>0.06035305627790653</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>406</v>
@@ -1437,19 +1437,19 @@
         <v>418447</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>380167</v>
+        <v>380493</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>459138</v>
+        <v>459902</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0628700989478881</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05711861997450685</v>
+        <v>0.05716766111040313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06898373240783388</v>
+        <v>0.06909854299452332</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3033487</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3001968</v>
+        <v>3003259</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3061827</v>
+        <v>3061288</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9258192563042823</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.916199823517766</v>
+        <v>0.9165937942545209</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9344686343703825</v>
+        <v>0.9343042919263597</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3128</v>
@@ -1487,19 +1487,19 @@
         <v>3203806</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3176692</v>
+        <v>3175252</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3228741</v>
+        <v>3227846</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9480969485858073</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9400729458932681</v>
+        <v>0.9396469437220937</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9554758746307618</v>
+        <v>0.9552110150231821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6105</v>
@@ -1508,19 +1508,19 @@
         <v>6237294</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6196603</v>
+        <v>6195839</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6275574</v>
+        <v>6275248</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9371299010521119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.931016267592166</v>
+        <v>0.9309014570054767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.942881380025493</v>
+        <v>0.9428323388895968</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>76740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60505</v>
+        <v>61546</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>95844</v>
+        <v>96244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07873609686008665</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06207921020590988</v>
+        <v>0.06314751250529572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09833767698807076</v>
+        <v>0.09874846271523122</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -1872,19 +1872,19 @@
         <v>112937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93237</v>
+        <v>91796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>134938</v>
+        <v>131929</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08442017972825072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06969441545335654</v>
+        <v>0.06861721868079201</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1008658372167142</v>
+        <v>0.09861684027119655</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>178</v>
@@ -1893,19 +1893,19 @@
         <v>189677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>165969</v>
+        <v>164586</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>218450</v>
+        <v>223076</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08202446234740418</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07177215445261713</v>
+        <v>0.07117403443688508</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09446711351500249</v>
+        <v>0.0964677804777422</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>897903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>878799</v>
+        <v>878399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>914138</v>
+        <v>913097</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9212639031399134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9016623230119293</v>
+        <v>0.9012515372847688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9379207897940901</v>
+        <v>0.9368524874947043</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1140</v>
@@ -1943,19 +1943,19 @@
         <v>1224860</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1202859</v>
+        <v>1205868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1244560</v>
+        <v>1246001</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9155798202717493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8991341627832857</v>
+        <v>0.9013831597288035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9303055845466435</v>
+        <v>0.931382781319208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1977</v>
@@ -1964,19 +1964,19 @@
         <v>2122763</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2093990</v>
+        <v>2089364</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2146471</v>
+        <v>2147854</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9179755376525959</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9055328864849975</v>
+        <v>0.9035322195222578</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9282278455473829</v>
+        <v>0.9288259655631149</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>184225</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159130</v>
+        <v>160567</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>213713</v>
+        <v>212911</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09380283319565917</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08102540795375958</v>
+        <v>0.08175684947992101</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1088177260940852</v>
+        <v>0.1084091896040163</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>109</v>
@@ -2089,19 +2089,19 @@
         <v>115761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95271</v>
+        <v>95029</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137631</v>
+        <v>136651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06585523607974331</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05419862302025447</v>
+        <v>0.05406111481485049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07829717849326663</v>
+        <v>0.07773960529263343</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>288</v>
@@ -2110,19 +2110,19 @@
         <v>299985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>269187</v>
+        <v>269226</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>335973</v>
+        <v>335148</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08060306758293656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07232798483476272</v>
+        <v>0.07233828625215248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09027254059517599</v>
+        <v>0.09005084936380234</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1779732</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1750244</v>
+        <v>1751046</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1804827</v>
+        <v>1803390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9061971668043408</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8911822739059148</v>
+        <v>0.8915908103959836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9189745920462404</v>
+        <v>0.918243150520079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1526</v>
@@ -2160,19 +2160,19 @@
         <v>1642042</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1620172</v>
+        <v>1621152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1662532</v>
+        <v>1662774</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9341447639202567</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9217028215067337</v>
+        <v>0.9222603947073666</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9458013769797456</v>
+        <v>0.9459388851851497</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3203</v>
@@ -2181,19 +2181,19 @@
         <v>3421775</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3385787</v>
+        <v>3386612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3452573</v>
+        <v>3452534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9193969324170634</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.909727459404824</v>
+        <v>0.9099491506361977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9276720151652373</v>
+        <v>0.9276617137478476</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>26054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16949</v>
+        <v>16761</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37967</v>
+        <v>37458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05414626406755746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03522349127197798</v>
+        <v>0.03483297931254567</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07890284456730455</v>
+        <v>0.07784588102888032</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -2306,19 +2306,19 @@
         <v>28775</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18254</v>
+        <v>19187</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41403</v>
+        <v>41438</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06274052704684029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03980181833069262</v>
+        <v>0.04183539755308171</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09027464143755695</v>
+        <v>0.09035230576107307</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -2327,19 +2327,19 @@
         <v>54829</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>41261</v>
+        <v>40475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71128</v>
+        <v>71950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05834028795155571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04390289495675522</v>
+        <v>0.0430667251905276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07568325408828516</v>
+        <v>0.07655732975843441</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>455127</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>443214</v>
+        <v>443723</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464232</v>
+        <v>464420</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9458537359324426</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9210971554326953</v>
+        <v>0.9221541189711189</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.964776508728022</v>
+        <v>0.9651670206874536</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>387</v>
@@ -2377,19 +2377,19 @@
         <v>429856</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>417228</v>
+        <v>417193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>440377</v>
+        <v>439444</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9372594729531597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9097253585624429</v>
+        <v>0.9096476942389269</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9601981816693074</v>
+        <v>0.9581646024469181</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>800</v>
@@ -2398,19 +2398,19 @@
         <v>884984</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>868685</v>
+        <v>867863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>898552</v>
+        <v>899338</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9416597120484443</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9243167459117149</v>
+        <v>0.9234426702415657</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9560971050432447</v>
+        <v>0.9569332748094723</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>287019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>254734</v>
+        <v>256919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>320941</v>
+        <v>320130</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08392890098883435</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07448837291917866</v>
+        <v>0.07512723147853113</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09384847546744349</v>
+        <v>0.09361123096037105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>241</v>
@@ -2523,19 +2523,19 @@
         <v>257472</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>226815</v>
+        <v>226724</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287858</v>
+        <v>290853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07244108257657862</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06381546929647255</v>
+        <v>0.06378994121843629</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0809903908697355</v>
+        <v>0.08183291288403466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>516</v>
@@ -2544,19 +2544,19 @@
         <v>544491</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>499943</v>
+        <v>502002</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>596336</v>
+        <v>591136</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07807425787346779</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07168661874203502</v>
+        <v>0.0719817710542297</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08550835179427518</v>
+        <v>0.08476265721773704</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3132763</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3098841</v>
+        <v>3099652</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3165048</v>
+        <v>3162863</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9160710990111657</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9061515245325565</v>
+        <v>0.9063887690396289</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9255116270808212</v>
+        <v>0.9248727685214687</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3053</v>
@@ -2594,19 +2594,19 @@
         <v>3296758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3266372</v>
+        <v>3263377</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3327415</v>
+        <v>3327506</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9275589174234213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9190096091302641</v>
+        <v>0.9181670871159648</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9361845307035275</v>
+        <v>0.9362100587815635</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5980</v>
@@ -2615,19 +2615,19 @@
         <v>6429521</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6377676</v>
+        <v>6382876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6474069</v>
+        <v>6472010</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9219257421265322</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9144916482057248</v>
+        <v>0.9152373427822628</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9283133812579649</v>
+        <v>0.9280182289457702</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>45703</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34818</v>
+        <v>34515</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>59939</v>
+        <v>58863</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06058640369819327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04615646971203943</v>
+        <v>0.04575453540167769</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07945785300763784</v>
+        <v>0.07803195973404087</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -2979,19 +2979,19 @@
         <v>74602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58752</v>
+        <v>58864</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94194</v>
+        <v>94381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07500216056202105</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05906740705820786</v>
+        <v>0.0591801087854454</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09469979129519637</v>
+        <v>0.09488741644850196</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -3000,19 +3000,19 @@
         <v>120305</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>100260</v>
+        <v>100415</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144903</v>
+        <v>146819</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0687846439670734</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05732376217727771</v>
+        <v>0.05741280170991832</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08284883978979772</v>
+        <v>0.08394402855720616</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>708644</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>694408</v>
+        <v>695484</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>719529</v>
+        <v>719832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9394135963018068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9205421469923618</v>
+        <v>0.921968040265959</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9538435302879601</v>
+        <v>0.9542454645983222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>829</v>
@@ -3050,19 +3050,19 @@
         <v>920058</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>900466</v>
+        <v>900279</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>935908</v>
+        <v>935796</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.924997839437979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9053002087048034</v>
+        <v>0.9051125835514983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.940932592941792</v>
+        <v>0.9408198912145546</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1542</v>
@@ -3071,19 +3071,19 @@
         <v>1628702</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1604104</v>
+        <v>1602188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1648747</v>
+        <v>1648592</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9312153560329266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9171511602102023</v>
+        <v>0.9160559714427938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9426762378227223</v>
+        <v>0.9425871982900816</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>121179</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100378</v>
+        <v>100821</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142559</v>
+        <v>145106</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0583608012835341</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04834284364848268</v>
+        <v>0.04855620850080739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06865708798341838</v>
+        <v>0.06988414611928073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>81</v>
@@ -3196,19 +3196,19 @@
         <v>85845</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>68019</v>
+        <v>69580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>105112</v>
+        <v>107389</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04317488099888536</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03420944201757509</v>
+        <v>0.03499463984526911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0528653840265058</v>
+        <v>0.05401045482934487</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>196</v>
@@ -3217,19 +3217,19 @@
         <v>207024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178580</v>
+        <v>181127</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>235593</v>
+        <v>242559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05093238652051715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04393449333150602</v>
+        <v>0.04456104006767796</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0579609028280122</v>
+        <v>0.059674843676383</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>1955206</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1933826</v>
+        <v>1931279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1976007</v>
+        <v>1975564</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.941639198716466</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9313429120165818</v>
+        <v>0.9301158538807195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9516571563515174</v>
+        <v>0.9514437914991927</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1827</v>
@@ -3267,19 +3267,19 @@
         <v>1902455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1883188</v>
+        <v>1880911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1920281</v>
+        <v>1918720</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9568251190011147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9471346159734941</v>
+        <v>0.9459895451706549</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9657905579824249</v>
+        <v>0.9650053601547308</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3664</v>
@@ -3288,19 +3288,19 @@
         <v>3857661</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3829092</v>
+        <v>3822126</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3886105</v>
+        <v>3883558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9490676134794829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9420390971719877</v>
+        <v>0.9403251563236169</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9560655066684939</v>
+        <v>0.9554389599323221</v>
       </c>
     </row>
     <row r="9">
@@ -3392,19 +3392,19 @@
         <v>30796</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21265</v>
+        <v>21547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44193</v>
+        <v>44725</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05631186540583906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0388846538202607</v>
+        <v>0.03939919443430956</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08080753047220762</v>
+        <v>0.08178185055126796</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -3413,19 +3413,19 @@
         <v>31007</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21484</v>
+        <v>20283</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44934</v>
+        <v>44785</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05646494521615619</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03912219268006278</v>
+        <v>0.03693523942295302</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08182603527799867</v>
+        <v>0.08155499535710545</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>55</v>
@@ -3434,19 +3434,19 @@
         <v>61803</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>47517</v>
+        <v>47469</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80605</v>
+        <v>80783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05638856272680492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04335419916523086</v>
+        <v>0.04331018700893964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07354269058081934</v>
+        <v>0.07370559295588515</v>
       </c>
     </row>
     <row r="11">
@@ -3463,19 +3463,19 @@
         <v>516090</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>502693</v>
+        <v>502161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>525621</v>
+        <v>525339</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9436881345941609</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9191924695277924</v>
+        <v>0.9182181494487319</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9611153461797394</v>
+        <v>0.9606008055656904</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>498</v>
@@ -3484,19 +3484,19 @@
         <v>518133</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>504206</v>
+        <v>504355</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>527656</v>
+        <v>528857</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9435350547838438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9181739647220012</v>
+        <v>0.9184450046428945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9608778073199372</v>
+        <v>0.9630647605770467</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>972</v>
@@ -3505,19 +3505,19 @@
         <v>1034224</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1015422</v>
+        <v>1015244</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1048510</v>
+        <v>1048558</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9436114372731951</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9264573094191807</v>
+        <v>0.9262944070441149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9566458008347691</v>
+        <v>0.9566898129910604</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>197679</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>171317</v>
+        <v>171394</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>226496</v>
+        <v>224137</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05852610748790534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05072117956385045</v>
+        <v>0.05074391978968869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06705780820826317</v>
+        <v>0.06635938173342434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>172</v>
@@ -3630,19 +3630,19 @@
         <v>191453</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>166641</v>
+        <v>162390</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>219037</v>
+        <v>219528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05420385315627123</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04717893571448634</v>
+        <v>0.04597534742800128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06201338069016443</v>
+        <v>0.06215212923305324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>363</v>
@@ -3651,19 +3651,19 @@
         <v>389132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>352688</v>
+        <v>348316</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>434379</v>
+        <v>424774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05631666335526908</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05104224298167146</v>
+        <v>0.05040961689256029</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06286486768950975</v>
+        <v>0.06147491528248773</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3179939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3151122</v>
+        <v>3153481</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3206301</v>
+        <v>3206224</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9414738925120947</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9329421917917368</v>
+        <v>0.9336406182665755</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9492788204361495</v>
+        <v>0.949256080210311</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3154</v>
@@ -3701,19 +3701,19 @@
         <v>3340647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3313063</v>
+        <v>3312572</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3365459</v>
+        <v>3369710</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9457961468437288</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9379866193098355</v>
+        <v>0.9378478707669468</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9528210642855137</v>
+        <v>0.9540246525719988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6178</v>
@@ -3722,19 +3722,19 @@
         <v>6520586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6475339</v>
+        <v>6484944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6557030</v>
+        <v>6561402</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9436833366447309</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9371351323104902</v>
+        <v>0.9385250847175123</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9489577570183285</v>
+        <v>0.9495903831074397</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>37843</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28462</v>
+        <v>27936</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49799</v>
+        <v>49352</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0654117009422738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04919766931423505</v>
+        <v>0.04828860713660575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08607918356177505</v>
+        <v>0.08530659894597799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>157</v>
@@ -4086,19 +4086,19 @@
         <v>84521</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>72934</v>
+        <v>72136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98561</v>
+        <v>97892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1028191497908179</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0887230650967856</v>
+        <v>0.08775245391999741</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1198980297658426</v>
+        <v>0.1190850635577237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -4107,19 +4107,19 @@
         <v>122364</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>106690</v>
+        <v>106913</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>140800</v>
+        <v>141121</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08736733266538947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07617621343001707</v>
+        <v>0.07633516499300678</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1005308654853613</v>
+        <v>0.1007598653236825</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>540686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>528730</v>
+        <v>529177</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>550067</v>
+        <v>550593</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9345882990577262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.913920816438225</v>
+        <v>0.9146934010540222</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9508023306857649</v>
+        <v>0.951711392863394</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1270</v>
@@ -4157,19 +4157,19 @@
         <v>737517</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>723477</v>
+        <v>724146</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>749104</v>
+        <v>749902</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.897180850209182</v>
+        <v>0.8971808502091823</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8801019702341575</v>
+        <v>0.8809149364422761</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9112769349032146</v>
+        <v>0.9122475460800027</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1908</v>
@@ -4178,19 +4178,19 @@
         <v>1278203</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1259767</v>
+        <v>1259446</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1293877</v>
+        <v>1293654</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9126326673346107</v>
+        <v>0.9126326673346106</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8994691345146385</v>
+        <v>0.8992401346763175</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9238237865699831</v>
+        <v>0.9236648350069933</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>140218</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>117410</v>
+        <v>117586</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>168192</v>
+        <v>165575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0628620531547706</v>
+        <v>0.06286205315477059</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05263688662089045</v>
+        <v>0.05271554688381502</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0754032197360741</v>
+        <v>0.07423000515056755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>147</v>
@@ -4303,19 +4303,19 @@
         <v>111027</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>92842</v>
+        <v>93083</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131456</v>
+        <v>131637</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05113188344012656</v>
+        <v>0.05113188344012655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04275690534242264</v>
+        <v>0.04286807267653332</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06053995245518774</v>
+        <v>0.06062338559114791</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>272</v>
@@ -4324,19 +4324,19 @@
         <v>251245</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>221887</v>
+        <v>220037</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>285475</v>
+        <v>286106</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05707581089322284</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.050406450627343</v>
+        <v>0.04998611377626239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06485187057323691</v>
+        <v>0.06499518845085181</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2090348</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2062374</v>
+        <v>2064991</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2113156</v>
+        <v>2112980</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9371379468452294</v>
+        <v>0.9371379468452296</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9245967802639258</v>
+        <v>0.9257699948494326</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9473631133791096</v>
+        <v>0.947284453116185</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2774</v>
@@ -4374,19 +4374,19 @@
         <v>2060365</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2039936</v>
+        <v>2039755</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2078550</v>
+        <v>2078309</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9488681165598735</v>
+        <v>0.9488681165598732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9394600475448123</v>
+        <v>0.9393766144088526</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9572430946575773</v>
+        <v>0.9571319273234669</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4641</v>
@@ -4395,19 +4395,19 @@
         <v>4150714</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4116484</v>
+        <v>4115853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4180072</v>
+        <v>4181922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9429241891067771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9351481294267634</v>
+        <v>0.9350048115491483</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9495935493726569</v>
+        <v>0.9500138862237376</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>41669</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>29110</v>
+        <v>28799</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63963</v>
+        <v>60650</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05855730045162607</v>
+        <v>0.05855730045162606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04090792907551705</v>
+        <v>0.04047220622612387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08988801411438974</v>
+        <v>0.08523260023063205</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>53</v>
@@ -4520,19 +4520,19 @@
         <v>35239</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27296</v>
+        <v>27180</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47079</v>
+        <v>46746</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0479527804000132</v>
+        <v>0.04795278040001321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03714297286986593</v>
+        <v>0.03698594667718175</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06406353876866169</v>
+        <v>0.06361058069358431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -4541,19 +4541,19 @@
         <v>76908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61081</v>
+        <v>61320</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>100372</v>
+        <v>99444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05316966606885207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04222763571701214</v>
+        <v>0.04239306462737839</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06939157155888624</v>
+        <v>0.06874938153723464</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>669918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>647624</v>
+        <v>650937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>682477</v>
+        <v>682788</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9414426995483741</v>
+        <v>0.941442699548374</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9101119858856106</v>
+        <v>0.9147673997693674</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.959092070924483</v>
+        <v>0.9595277937738761</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>951</v>
@@ -4591,19 +4591,19 @@
         <v>699638</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>687798</v>
+        <v>688131</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>707581</v>
+        <v>707697</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9520472195999866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9359364612313383</v>
+        <v>0.9363894193064156</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9628570271301339</v>
+        <v>0.9630140533228183</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1599</v>
@@ -4612,19 +4612,19 @@
         <v>1369556</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1346092</v>
+        <v>1347020</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1385383</v>
+        <v>1385144</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9468303339311479</v>
+        <v>0.946830333931148</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9306084284411137</v>
+        <v>0.9312506184627655</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9577723642829878</v>
+        <v>0.9576069353726218</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>219729</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>190723</v>
+        <v>188523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>255452</v>
+        <v>254568</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.0624109588392754</v>
+        <v>0.06241095883927542</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05417209488806574</v>
+        <v>0.05354727559985741</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07255746948709245</v>
+        <v>0.07230633359901557</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>357</v>
@@ -4737,19 +4737,19 @@
         <v>230788</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>207851</v>
+        <v>205903</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259692</v>
+        <v>258353</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06190155359231952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05574950585910602</v>
+        <v>0.05522684192803836</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06965422851459151</v>
+        <v>0.06929486468130489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>568</v>
@@ -4758,19 +4758,19 @@
         <v>450517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>409084</v>
+        <v>409412</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492571</v>
+        <v>494187</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06214896106167749</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05643322963594642</v>
+        <v>0.05647854899221293</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06795034234338004</v>
+        <v>0.06817320545101198</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3300954</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3265231</v>
+        <v>3266115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3329960</v>
+        <v>3332160</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9375890411607245</v>
+        <v>0.9375890411607246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9274425305129075</v>
+        <v>0.9276936664009845</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9458279051119342</v>
+        <v>0.9464527244001426</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4995</v>
@@ -4808,19 +4808,19 @@
         <v>3497519</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3468615</v>
+        <v>3469954</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3520456</v>
+        <v>3522404</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9380984464076804</v>
+        <v>0.9380984464076805</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9303457714854081</v>
+        <v>0.9307051353186949</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9442504941408938</v>
+        <v>0.9447731580719616</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8148</v>
@@ -4829,19 +4829,19 @@
         <v>6798473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6756419</v>
+        <v>6754803</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6839906</v>
+        <v>6839578</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9378510389383224</v>
+        <v>0.9378510389383226</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9320496576566198</v>
+        <v>0.9318267945489882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9435667703640536</v>
+        <v>0.9435214510077875</v>
       </c>
     </row>
     <row r="15">
